--- a/Phenoloxidase Activity data/12. AEG 12 (91144).xlsx
+++ b/Phenoloxidase Activity data/12. AEG 12 (91144).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Blank " sheetId="4" r:id="rId1"/>
-    <sheet name="1 " sheetId="7" r:id="rId2"/>
+    <sheet name="1" sheetId="8" r:id="rId2"/>
     <sheet name="Phenol oxidase activity" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Sample - Blank</t>
   </si>
@@ -91,17 +91,17 @@
     <t>F9</t>
   </si>
   <si>
-    <t>Sample 91144</t>
+    <t>AEG - 12</t>
   </si>
   <si>
-    <t>AEG - 12</t>
+    <t>Sample 91153</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +120,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -168,6 +174,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,11 +415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239579912"/>
-        <c:axId val="239580296"/>
+        <c:axId val="136350432"/>
+        <c:axId val="243377848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239579912"/>
+        <c:axId val="136350432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,12 +476,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239580296"/>
+        <c:crossAx val="243377848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239580296"/>
+        <c:axId val="243377848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239579912"/>
+        <c:crossAx val="136350432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -799,11 +806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239134440"/>
-        <c:axId val="239134824"/>
+        <c:axId val="246414392"/>
+        <c:axId val="246414776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239134440"/>
+        <c:axId val="246414392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,12 +867,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239134824"/>
+        <c:crossAx val="246414776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239134824"/>
+        <c:axId val="246414776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239134440"/>
+        <c:crossAx val="246414392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1190,11 +1197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239156248"/>
-        <c:axId val="239156632"/>
+        <c:axId val="245787320"/>
+        <c:axId val="246350264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239156248"/>
+        <c:axId val="245787320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,12 +1258,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239156632"/>
+        <c:crossAx val="246350264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239156632"/>
+        <c:axId val="246350264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239156248"/>
+        <c:crossAx val="245787320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1454,8 +1461,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17371587926509185"/>
-                  <c:y val="9.2045785943423739E-4"/>
+                  <c:x val="-0.42527143482064744"/>
+                  <c:y val="0.2012325021872266"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1490,7 +1497,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$4:$N$14</c:f>
+              <c:f>'1'!$N$4:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1532,42 +1539,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$4:$O$14</c:f>
+              <c:f>'1'!$O$4:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-3.1733393669128418E-2</c:v>
+                  <c:v>1.2510999441146851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2599975268046135E-2</c:v>
+                  <c:v>1.3044999837875366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2133291562398201E-2</c:v>
+                  <c:v>1.3281999826431274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3533336321512932E-2</c:v>
+                  <c:v>1.3586000204086304</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1055333216985066</c:v>
+                  <c:v>1.3901000022888184</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14653333028157545</c:v>
+                  <c:v>1.4289000034332275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18913332621256518</c:v>
+                  <c:v>1.4699000120162964</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23629995187123609</c:v>
+                  <c:v>1.5154999494552612</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26659993330637621</c:v>
+                  <c:v>1.5463999509811401</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30126670996348071</c:v>
+                  <c:v>1.5800000429153442</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33359996477762865</c:v>
+                  <c:v>1.6128000020980835</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,11 +1589,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239174032"/>
-        <c:axId val="239227216"/>
+        <c:axId val="246433456"/>
+        <c:axId val="246433840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239174032"/>
+        <c:axId val="246433456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,12 +1650,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239227216"/>
+        <c:crossAx val="246433840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239227216"/>
+        <c:axId val="246433840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,7 +1712,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239174032"/>
+        <c:crossAx val="246433456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1846,8 +1853,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36816032370953633"/>
-                  <c:y val="0.12025189559638379"/>
+                  <c:x val="-0.40860476815398078"/>
+                  <c:y val="0.17087962962962963"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1882,7 +1889,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$19:$N$29</c:f>
+              <c:f>'1'!$N$19:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1924,42 +1931,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$19:$O$29</c:f>
+              <c:f>'1'!$O$19:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.2667131423950195E-3</c:v>
+                  <c:v>1.2891000509262085</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3600012461344475E-2</c:v>
+                  <c:v>1.315500020980835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4733355840047127E-2</c:v>
+                  <c:v>1.3408000469207764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.13333193461101E-2</c:v>
+                  <c:v>1.3664000034332275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10963328679402662</c:v>
+                  <c:v>1.3941999673843384</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15123327573140455</c:v>
+                  <c:v>1.4335999488830566</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18653337160746264</c:v>
+                  <c:v>1.4673000574111938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22209997971852613</c:v>
+                  <c:v>1.5012999773025513</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25500003496805834</c:v>
+                  <c:v>1.5348000526428223</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28466669718424487</c:v>
+                  <c:v>1.5634000301361084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.311099926630656</c:v>
+                  <c:v>1.5902999639511108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,11 +1981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238710320"/>
-        <c:axId val="238710704"/>
+        <c:axId val="246344000"/>
+        <c:axId val="245191776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238710320"/>
+        <c:axId val="246344000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,12 +2042,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238710704"/>
+        <c:crossAx val="245191776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238710704"/>
+        <c:axId val="245191776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238710320"/>
+        <c:crossAx val="246344000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2238,8 +2245,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.30924365704286966"/>
-                  <c:y val="3.2376786235053953E-2"/>
+                  <c:x val="-0.44871587926509188"/>
+                  <c:y val="0.23767862350539515"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2274,7 +2281,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$35:$N$45</c:f>
+              <c:f>'1'!$N$35:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2316,42 +2323,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$35:$O$45</c:f>
+              <c:f>'1'!$O$35:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.8466711044311523E-2</c:v>
+                  <c:v>1.301300048828125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5299936930338616E-2</c:v>
+                  <c:v>1.3171999454498291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3333361943562752E-2</c:v>
+                  <c:v>1.339400053024292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1033269564310784E-2</c:v>
+                  <c:v>1.3660999536514282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10713334878285719</c:v>
+                  <c:v>1.3917000293731689</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14063330491383863</c:v>
+                  <c:v>1.4229999780654907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17313329378763842</c:v>
+                  <c:v>1.4538999795913696</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20329995950063062</c:v>
+                  <c:v>1.4824999570846558</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23420004049936938</c:v>
+                  <c:v>1.5140000581741333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26366666952768969</c:v>
+                  <c:v>1.5424000024795532</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29099992911020922</c:v>
+                  <c:v>1.5701999664306641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2366,11 +2373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238338464"/>
-        <c:axId val="238339248"/>
+        <c:axId val="245189424"/>
+        <c:axId val="245192952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238338464"/>
+        <c:axId val="245189424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,12 +2434,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238339248"/>
+        <c:crossAx val="245192952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238339248"/>
+        <c:axId val="245192952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238338464"/>
+        <c:crossAx val="245189424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2630,8 +2637,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.32371587926509188"/>
-                  <c:y val="8.7546296296296303E-2"/>
+                  <c:x val="-0.28727537182852142"/>
+                  <c:y val="3.1990740740740743E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2666,7 +2673,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$51:$N$61</c:f>
+              <c:f>'1'!$N$51:$N$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2708,42 +2715,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$51:$O$61</c:f>
+              <c:f>'1'!$O$51:$O$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-3.5233378410339355E-2</c:v>
+                  <c:v>1.2475999593734741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.3999493916828687E-3</c:v>
+                  <c:v>1.2755000591278076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3333323796589429E-3</c:v>
+                  <c:v>1.2954000234603882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9133359591166252E-2</c:v>
+                  <c:v>1.3142000436782837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.013330777486158E-2</c:v>
+                  <c:v>1.3346999883651733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8333338101704841E-2</c:v>
+                  <c:v>1.3607000112533569</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10763327280680346</c:v>
+                  <c:v>1.3883999586105347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13490005334218336</c:v>
+                  <c:v>1.4141000509262085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1617999474207561</c:v>
+                  <c:v>1.44159996509552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18666664759318041</c:v>
+                  <c:v>1.4653999805450439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20929996172587084</c:v>
+                  <c:v>1.4884999990463257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,11 +2765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238340816"/>
-        <c:axId val="238339640"/>
+        <c:axId val="245190600"/>
+        <c:axId val="245190992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238340816"/>
+        <c:axId val="245190600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,12 +2826,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238339640"/>
+        <c:crossAx val="245190992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238339640"/>
+        <c:axId val="245190992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238340816"/>
+        <c:crossAx val="245190600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3022,8 +3029,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.14871587926509186"/>
-                  <c:y val="-4.1666666666666669E-4"/>
+                  <c:x val="-0.33204921259842518"/>
+                  <c:y val="0.12655584718576846"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3058,7 +3065,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$68:$N$78</c:f>
+              <c:f>'1'!$N$68:$N$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3100,42 +3107,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$68:$O$78</c:f>
+              <c:f>'1'!$O$68:$O$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-8.6333394050598145E-2</c:v>
+                  <c:v>1.1964999437332153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.529995759328199E-2</c:v>
+                  <c:v>1.2266000509262085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.9066712061564202E-2</c:v>
+                  <c:v>1.246999979019165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.1166642506917244E-2</c:v>
+                  <c:v>1.2639000415802002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-6.1667362848918383E-3</c:v>
+                  <c:v>1.2783999443054199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7433365186055427E-2</c:v>
+                  <c:v>1.2998000383377075</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6633292833964104E-2</c:v>
+                  <c:v>1.3173999786376953</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3100059827168709E-2</c:v>
+                  <c:v>1.3423000574111938</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.1299931208292717E-2</c:v>
+                  <c:v>1.3710999488830566</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11776665846506762</c:v>
+                  <c:v>1.3964999914169312</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14350001017252612</c:v>
+                  <c:v>1.422700047492981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238341600"/>
-        <c:axId val="238340032"/>
+        <c:axId val="245192560"/>
+        <c:axId val="247006664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238341600"/>
+        <c:axId val="245192560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,12 +3218,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238340032"/>
+        <c:crossAx val="247006664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="238340032"/>
+        <c:axId val="247006664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3273,7 +3280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238341600"/>
+        <c:crossAx val="245192560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3414,8 +3421,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22927143482064741"/>
-                  <c:y val="4.8599810440361622E-2"/>
+                  <c:x val="-0.34535476815398075"/>
+                  <c:y val="0.21254629629629629"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3450,7 +3457,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'1 '!$N$85:$N$95</c:f>
+              <c:f>'1'!$N$85:$N$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3492,42 +3499,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1 '!$O$85:$O$95</c:f>
+              <c:f>'1'!$O$85:$O$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-5.3933382034301758E-2</c:v>
+                  <c:v>1.2288999557495117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.0700057347615486E-2</c:v>
+                  <c:v>1.261199951171875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0333340962727124E-3</c:v>
+                  <c:v>1.291100025177002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7833372751871819E-2</c:v>
+                  <c:v>1.3229000568389893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4233263333638435E-2</c:v>
+                  <c:v>1.3487999439239502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1033299763997322E-2</c:v>
+                  <c:v>1.3733999729156494</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11693326632181811</c:v>
+                  <c:v>1.3976999521255493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1422999699910481</c:v>
+                  <c:v>1.4214999675750732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16459993521372485</c:v>
+                  <c:v>1.4443999528884888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18746666113535571</c:v>
+                  <c:v>1.4661999940872192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20820001761118578</c:v>
+                  <c:v>1.4874000549316406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3542,11 +3549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="238338072"/>
-        <c:axId val="239219896"/>
+        <c:axId val="247004704"/>
+        <c:axId val="247002352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="238338072"/>
+        <c:axId val="247004704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,12 +3610,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239219896"/>
+        <c:crossAx val="247002352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239219896"/>
+        <c:axId val="247002352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3672,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238338072"/>
+        <c:crossAx val="247004704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9281,7 +9288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
@@ -9635,7 +9642,7 @@
   <dimension ref="A3:O95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R98" sqref="R98"/>
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9646,10 +9653,10 @@
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2">
-        <v>91144</v>
+        <v>91153</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -9693,194 +9700,91 @@
         <v>0</v>
       </c>
       <c r="O4" s="2">
-        <v>-3.1733393669128418E-2</v>
+        <f>B6</f>
+        <v>1.2510999441146851</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.2839000225067139</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.2694000005722046</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.2683000564575195</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.2645000219345093</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.2652000188827515</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.2647000551223755</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.2652000188827515</v>
-      </c>
       <c r="N5" s="2">
         <v>3</v>
       </c>
       <c r="O5" s="2">
-        <v>2.2599975268046135E-2</v>
+        <f>C6</f>
+        <v>1.3044999837875366</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.3325999975204468</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.3308000564575195</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.3396999835968018</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.3422000408172607</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.3418999910354614</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.3387000560760498</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.3361999988555908</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.3346999883651733</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.3351000547409058</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.3321000337600708</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.3315000534057617</v>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B4</f>
+        <v>1.2510999441146851</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:L6" si="0">C4</f>
+        <v>1.3044999837875366</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3281999826431274</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3586000204086304</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3901000022888184</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4289000034332275</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4699000120162964</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5154999494552612</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5463999509811401</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5800000429153442</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6128000020980835</v>
       </c>
       <c r="N6" s="2">
         <v>6</v>
       </c>
       <c r="O6" s="2">
-        <v>4.2133291562398201E-2</v>
+        <f>D6</f>
+        <v>1.3281999826431274</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.2454999685287476</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.2502000331878662</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.2484999895095825</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.2465000152587891</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.2434999942779541</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.2409000396728516</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.2381999492645264</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.2389999628067017</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.2391999959945679</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.2409000396728516</v>
-      </c>
       <c r="N7" s="2">
         <v>9</v>
       </c>
       <c r="O7" s="2">
-        <v>7.3533336321512932E-2</v>
+        <f>E6</f>
+        <v>1.3586000204086304</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" ref="B8:L8" si="0">B4-(AVERAGE(B5:B7))</f>
-        <v>-3.1733393669128418E-2</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2599975268046135E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2133291562398201E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>7.3533336321512932E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.1055333216985066</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14653333028157545</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.18913332621256518</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.23629995187123609</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26659993330637621</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.30126670996348071</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.33359996477762865</v>
-      </c>
       <c r="N8" s="2">
         <v>12</v>
       </c>
       <c r="O8" s="2">
-        <v>0.1055333216985066</v>
+        <f>F6</f>
+        <v>1.3901000022888184</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -9888,7 +9792,8 @@
         <v>15</v>
       </c>
       <c r="O9" s="2">
-        <v>0.14653333028157545</v>
+        <f>G6</f>
+        <v>1.4289000034332275</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9896,7 +9801,8 @@
         <v>18</v>
       </c>
       <c r="O10" s="2">
-        <v>0.18913332621256518</v>
+        <f>H6</f>
+        <v>1.4699000120162964</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -9904,7 +9810,8 @@
         <v>21</v>
       </c>
       <c r="O11" s="2">
-        <v>0.23629995187123609</v>
+        <f>I6</f>
+        <v>1.5154999494552612</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9912,7 +9819,8 @@
         <v>24</v>
       </c>
       <c r="O12" s="2">
-        <v>0.26659993330637621</v>
+        <f>J6</f>
+        <v>1.5463999509811401</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9920,7 +9828,8 @@
         <v>27</v>
       </c>
       <c r="O13" s="2">
-        <v>0.30126670996348071</v>
+        <f>K6</f>
+        <v>1.5800000429153442</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9928,8 +9837,12 @@
         <v>30</v>
       </c>
       <c r="O14" s="2">
-        <v>0.33359996477762865</v>
-      </c>
+        <f>L6</f>
+        <v>1.6128000020980835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -9972,194 +9885,91 @@
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>6.2667131423950195E-3</v>
+        <f>B21</f>
+        <v>1.2891000509262085</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.2839000225067139</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.2694000005722046</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.2683000564575195</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.2645000219345093</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.2652000188827515</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1.2647000551223755</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1.2652000188827515</v>
-      </c>
       <c r="N20" s="2">
         <v>3</v>
       </c>
       <c r="O20" s="2">
-        <v>3.3600012461344475E-2</v>
+        <f>C21</f>
+        <v>1.315500020980835</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.3325999975204468</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.3308000564575195</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.3396999835968018</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.3422000408172607</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.3418999910354614</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.3387000560760498</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.3361999988555908</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.3346999883651733</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.3351000547409058</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.3321000337600708</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.3315000534057617</v>
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <f>B19</f>
+        <v>1.2891000509262085</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:L21" si="1">C19</f>
+        <v>1.315500020980835</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3408000469207764</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3664000034332275</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3941999673843384</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4335999488830566</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4673000574111938</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5012999773025513</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5348000526428223</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5634000301361084</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5902999639511108</v>
       </c>
       <c r="N21" s="2">
         <v>6</v>
       </c>
       <c r="O21" s="2">
-        <v>5.4733355840047127E-2</v>
+        <f>D21</f>
+        <v>1.3408000469207764</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.2454999685287476</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.2502000331878662</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.2484999895095825</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.2465000152587891</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.2434999942779541</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1.2409000396728516</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.2381999492645264</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.2389999628067017</v>
-      </c>
-      <c r="K22" s="1">
-        <v>1.2391999959945679</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.2409000396728516</v>
-      </c>
       <c r="N22" s="2">
         <v>9</v>
       </c>
       <c r="O22" s="2">
-        <v>8.13333193461101E-2</v>
+        <f>E21</f>
+        <v>1.3664000034332275</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" ref="B23:L23" si="1">B19-(AVERAGE(B20:B22))</f>
-        <v>6.2667131423950195E-3</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>3.3600012461344475E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4733355840047127E-2</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>8.13333193461101E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.10963328679402662</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.15123327573140455</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.18653337160746264</v>
-      </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.22209997971852613</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.25500003496805834</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.28466669718424487</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.311099926630656</v>
-      </c>
       <c r="N23" s="2">
         <v>12</v>
       </c>
       <c r="O23" s="2">
-        <v>0.10963328679402662</v>
+        <f>F21</f>
+        <v>1.3941999673843384</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10167,7 +9977,8 @@
         <v>15</v>
       </c>
       <c r="O24" s="2">
-        <v>0.15123327573140455</v>
+        <f>G21</f>
+        <v>1.4335999488830566</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10175,7 +9986,8 @@
         <v>18</v>
       </c>
       <c r="O25" s="2">
-        <v>0.18653337160746264</v>
+        <f>H21</f>
+        <v>1.4673000574111938</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10183,7 +9995,8 @@
         <v>21</v>
       </c>
       <c r="O26" s="2">
-        <v>0.22209997971852613</v>
+        <f>I21</f>
+        <v>1.5012999773025513</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -10191,7 +10004,8 @@
         <v>24</v>
       </c>
       <c r="O27" s="2">
-        <v>0.25500003496805834</v>
+        <f>J21</f>
+        <v>1.5348000526428223</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10199,7 +10013,8 @@
         <v>27</v>
       </c>
       <c r="O28" s="2">
-        <v>0.28466669718424487</v>
+        <f>K21</f>
+        <v>1.5634000301361084</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10207,7 +10022,8 @@
         <v>30</v>
       </c>
       <c r="O29" s="2">
-        <v>0.311099926630656</v>
+        <f>L21</f>
+        <v>1.5902999639511108</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -10251,194 +10067,91 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>1.8466711044311523E-2</v>
+        <f>B37</f>
+        <v>1.301300048828125</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1.2839000225067139</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.2694000005722046</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.2683000564575195</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.2645000219345093</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1.2652000188827515</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1.2647000551223755</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="K36" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="L36" s="1">
-        <v>1.2652000188827515</v>
-      </c>
       <c r="N36" s="2">
         <v>3</v>
       </c>
       <c r="O36" s="2">
-        <v>3.5299936930338616E-2</v>
+        <f>C37</f>
+        <v>1.3171999454498291</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.3325999975204468</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.3308000564575195</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.3396999835968018</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1.3422000408172607</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.3418999910354614</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1.3387000560760498</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.3361999988555908</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1.3346999883651733</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1.3351000547409058</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1.3321000337600708</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1.3315000534057617</v>
+      <c r="A37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <f>B35</f>
+        <v>1.301300048828125</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ref="C37:L37" si="2">C35</f>
+        <v>1.3171999454498291</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.339400053024292</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3660999536514282</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3917000293731689</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4229999780654907</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4538999795913696</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4824999570846558</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5140000581741333</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5424000024795532</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>1.5701999664306641</v>
       </c>
       <c r="N37" s="2">
         <v>6</v>
       </c>
       <c r="O37" s="2">
-        <v>5.3333361943562752E-2</v>
+        <f>D37</f>
+        <v>1.339400053024292</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.2454999685287476</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.2502000331878662</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1.2484999895095825</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.2465000152587891</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.2434999942779541</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.2409000396728516</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1.2381999492645264</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1.2389999628067017</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1.2391999959945679</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1.2409000396728516</v>
-      </c>
       <c r="N38" s="2">
         <v>9</v>
       </c>
       <c r="O38" s="2">
-        <v>8.1033269564310784E-2</v>
+        <f>E37</f>
+        <v>1.3660999536514282</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2">
-        <f t="shared" ref="B39:L39" si="2">B35-(AVERAGE(B36:B38))</f>
-        <v>1.8466711044311523E-2</v>
-      </c>
-      <c r="C39" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5299936930338616E-2</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="2"/>
-        <v>5.3333361943562752E-2</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="2"/>
-        <v>8.1033269564310784E-2</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10713334878285719</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.14063330491383863</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.17313329378763842</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20329995950063062</v>
-      </c>
-      <c r="J39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.23420004049936938</v>
-      </c>
-      <c r="K39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.26366666952768969</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="2"/>
-        <v>0.29099992911020922</v>
-      </c>
       <c r="N39" s="2">
         <v>12</v>
       </c>
       <c r="O39" s="2">
-        <v>0.10713334878285719</v>
+        <f>F37</f>
+        <v>1.3917000293731689</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -10446,7 +10159,8 @@
         <v>15</v>
       </c>
       <c r="O40" s="2">
-        <v>0.14063330491383863</v>
+        <f>G37</f>
+        <v>1.4229999780654907</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -10454,7 +10168,8 @@
         <v>18</v>
       </c>
       <c r="O41" s="2">
-        <v>0.17313329378763842</v>
+        <f>H37</f>
+        <v>1.4538999795913696</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -10462,7 +10177,8 @@
         <v>21</v>
       </c>
       <c r="O42" s="2">
-        <v>0.20329995950063062</v>
+        <f>I37</f>
+        <v>1.4824999570846558</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -10471,7 +10187,8 @@
         <v>24</v>
       </c>
       <c r="O43" s="2">
-        <v>0.23420004049936938</v>
+        <f>J37</f>
+        <v>1.5140000581741333</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -10479,7 +10196,8 @@
         <v>27</v>
       </c>
       <c r="O44" s="2">
-        <v>0.26366666952768969</v>
+        <f>K37</f>
+        <v>1.5424000024795532</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -10487,7 +10205,8 @@
         <v>30</v>
       </c>
       <c r="O45" s="2">
-        <v>0.29099992911020922</v>
+        <f>L37</f>
+        <v>1.5701999664306641</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -10531,194 +10250,91 @@
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>-3.5233378410339355E-2</v>
+        <f>B53</f>
+        <v>1.2475999593734741</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="1">
-        <v>1.2839000225067139</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1.2694000005722046</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1.2683000564575195</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1.2645000219345093</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.2652000188827515</v>
-      </c>
-      <c r="I52" s="1">
-        <v>1.2647000551223755</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="L52" s="1">
-        <v>1.2652000188827515</v>
-      </c>
       <c r="N52" s="2">
         <v>3</v>
       </c>
       <c r="O52" s="2">
-        <v>-6.3999493916828687E-3</v>
+        <f>C53</f>
+        <v>1.2755000591278076</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="1">
-        <v>1.3325999975204468</v>
-      </c>
-      <c r="C53" s="1">
-        <v>1.3308000564575195</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1.3396999835968018</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1.3422000408172607</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1.3418999910354614</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1.3387000560760498</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1.3361999988555908</v>
-      </c>
-      <c r="I53" s="1">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <f>B51</f>
+        <v>1.2475999593734741</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ref="C53:L53" si="3">C51</f>
+        <v>1.2755000591278076</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2954000234603882</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3142000436782837</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="3"/>
         <v>1.3346999883651733</v>
       </c>
-      <c r="J53" s="1">
-        <v>1.3351000547409058</v>
-      </c>
-      <c r="K53" s="1">
-        <v>1.3321000337600708</v>
-      </c>
-      <c r="L53" s="1">
-        <v>1.3315000534057617</v>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3607000112533569</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3883999586105347</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4141000509262085</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.44159996509552</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4653999805450439</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4884999990463257</v>
       </c>
       <c r="N53" s="2">
         <v>6</v>
       </c>
       <c r="O53" s="2">
-        <v>9.3333323796589429E-3</v>
+        <f>D53</f>
+        <v>1.2954000234603882</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1.2454999685287476</v>
-      </c>
-      <c r="D54" s="1">
-        <v>1.2502000331878662</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.2484999895095825</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1.2465000152587891</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1.2434999942779541</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1.2409000396728516</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1.2381999492645264</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1.2389999628067017</v>
-      </c>
-      <c r="K54" s="1">
-        <v>1.2391999959945679</v>
-      </c>
-      <c r="L54" s="1">
-        <v>1.2409000396728516</v>
-      </c>
       <c r="N54" s="2">
         <v>9</v>
       </c>
       <c r="O54" s="2">
-        <v>2.9133359591166252E-2</v>
+        <f>E53</f>
+        <v>1.3142000436782837</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <f t="shared" ref="B55:L55" si="3">B51-(AVERAGE(B52:B54))</f>
-        <v>-3.5233378410339355E-2</v>
-      </c>
-      <c r="C55" s="2">
-        <f t="shared" si="3"/>
-        <v>-6.3999493916828687E-3</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="3"/>
-        <v>9.3333323796589429E-3</v>
-      </c>
-      <c r="E55" s="2">
-        <f t="shared" si="3"/>
-        <v>2.9133359591166252E-2</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="3"/>
-        <v>5.013330777486158E-2</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>7.8333338101704841E-2</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.10763327280680346</v>
-      </c>
-      <c r="I55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.13490005334218336</v>
-      </c>
-      <c r="J55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1617999474207561</v>
-      </c>
-      <c r="K55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.18666664759318041</v>
-      </c>
-      <c r="L55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.20929996172587084</v>
-      </c>
       <c r="N55" s="2">
         <v>12</v>
       </c>
       <c r="O55" s="2">
-        <v>5.013330777486158E-2</v>
+        <f>F53</f>
+        <v>1.3346999883651733</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -10726,7 +10342,8 @@
         <v>15</v>
       </c>
       <c r="O56" s="2">
-        <v>7.8333338101704841E-2</v>
+        <f>G53</f>
+        <v>1.3607000112533569</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -10734,7 +10351,8 @@
         <v>18</v>
       </c>
       <c r="O57" s="2">
-        <v>0.10763327280680346</v>
+        <f>H53</f>
+        <v>1.3883999586105347</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -10742,7 +10360,8 @@
         <v>21</v>
       </c>
       <c r="O58" s="2">
-        <v>0.13490005334218336</v>
+        <f>I53</f>
+        <v>1.4141000509262085</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -10750,7 +10369,8 @@
         <v>24</v>
       </c>
       <c r="O59" s="2">
-        <v>0.1617999474207561</v>
+        <f>J53</f>
+        <v>1.44159996509552</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -10758,7 +10378,8 @@
         <v>27</v>
       </c>
       <c r="O60" s="2">
-        <v>0.18666664759318041</v>
+        <f>K53</f>
+        <v>1.4653999805450439</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -10766,7 +10387,8 @@
         <v>30</v>
       </c>
       <c r="O61" s="2">
-        <v>0.20929996172587084</v>
+        <f>L53</f>
+        <v>1.4884999990463257</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -10810,194 +10432,91 @@
         <v>0</v>
       </c>
       <c r="O68" s="2">
-        <v>-8.6333394050598145E-2</v>
+        <f>B70</f>
+        <v>1.1964999437332153</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1.2839000225067139</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.2694000005722046</v>
-      </c>
-      <c r="D69" s="1">
-        <v>1.2683000564575195</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1.2645000219345093</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1.2652000188827515</v>
-      </c>
-      <c r="I69" s="1">
-        <v>1.2647000551223755</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="L69" s="1">
-        <v>1.2652000188827515</v>
-      </c>
       <c r="N69" s="2">
         <v>3</v>
       </c>
       <c r="O69" s="2">
-        <v>-5.529995759328199E-2</v>
+        <f>C70</f>
+        <v>1.2266000509262085</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1.3325999975204468</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.3308000564575195</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1.3396999835968018</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1.3422000408172607</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1.3418999910354614</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1.3387000560760498</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1.3361999988555908</v>
-      </c>
-      <c r="I70" s="1">
-        <v>1.3346999883651733</v>
-      </c>
-      <c r="J70" s="1">
-        <v>1.3351000547409058</v>
-      </c>
-      <c r="K70" s="1">
-        <v>1.3321000337600708</v>
-      </c>
-      <c r="L70" s="1">
-        <v>1.3315000534057617</v>
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <f>B68</f>
+        <v>1.1964999437332153</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" ref="C70:L70" si="4">C68</f>
+        <v>1.2266000509262085</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.246999979019165</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2639000415802002</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2783999443054199</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2998000383377075</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3173999786376953</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3423000574111938</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3710999488830566</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3964999914169312</v>
+      </c>
+      <c r="L70" s="2">
+        <f t="shared" si="4"/>
+        <v>1.422700047492981</v>
       </c>
       <c r="N70" s="2">
         <v>6</v>
       </c>
       <c r="O70" s="2">
-        <v>-3.9066712061564202E-2</v>
+        <f>D70</f>
+        <v>1.246999979019165</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.2454999685287476</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1.2502000331878662</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1.2484999895095825</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.2465000152587891</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1.2434999942779541</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1.2409000396728516</v>
-      </c>
-      <c r="I71" s="1">
-        <v>1.2381999492645264</v>
-      </c>
-      <c r="J71" s="1">
-        <v>1.2389999628067017</v>
-      </c>
-      <c r="K71" s="1">
-        <v>1.2391999959945679</v>
-      </c>
-      <c r="L71" s="1">
-        <v>1.2409000396728516</v>
-      </c>
       <c r="N71" s="2">
         <v>9</v>
       </c>
       <c r="O71" s="2">
-        <v>-2.1166642506917244E-2</v>
+        <f>E70</f>
+        <v>1.2639000415802002</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="2">
-        <f t="shared" ref="B72:L72" si="4">B68-(AVERAGE(B69:B71))</f>
-        <v>-8.6333394050598145E-2</v>
-      </c>
-      <c r="C72" s="2">
-        <f t="shared" si="4"/>
-        <v>-5.529995759328199E-2</v>
-      </c>
-      <c r="D72" s="2">
-        <f t="shared" si="4"/>
-        <v>-3.9066712061564202E-2</v>
-      </c>
-      <c r="E72" s="2">
-        <f t="shared" si="4"/>
-        <v>-2.1166642506917244E-2</v>
-      </c>
-      <c r="F72" s="2">
-        <f t="shared" si="4"/>
-        <v>-6.1667362848918383E-3</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="4"/>
-        <v>1.7433365186055427E-2</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="4"/>
-        <v>3.6633292833964104E-2</v>
-      </c>
-      <c r="I72" s="2">
-        <f t="shared" si="4"/>
-        <v>6.3100059827168709E-2</v>
-      </c>
-      <c r="J72" s="2">
-        <f t="shared" si="4"/>
-        <v>9.1299931208292717E-2</v>
-      </c>
-      <c r="K72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.11776665846506762</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="4"/>
-        <v>0.14350001017252612</v>
-      </c>
       <c r="N72" s="2">
         <v>12</v>
       </c>
       <c r="O72" s="2">
-        <v>-6.1667362848918383E-3</v>
+        <f>F70</f>
+        <v>1.2783999443054199</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -11005,7 +10524,8 @@
         <v>15</v>
       </c>
       <c r="O73" s="2">
-        <v>1.7433365186055427E-2</v>
+        <f>G70</f>
+        <v>1.2998000383377075</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -11013,7 +10533,8 @@
         <v>18</v>
       </c>
       <c r="O74" s="2">
-        <v>3.6633292833964104E-2</v>
+        <f>H70</f>
+        <v>1.3173999786376953</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -11021,7 +10542,8 @@
         <v>21</v>
       </c>
       <c r="O75" s="2">
-        <v>6.3100059827168709E-2</v>
+        <f>I70</f>
+        <v>1.3423000574111938</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -11029,7 +10551,8 @@
         <v>24</v>
       </c>
       <c r="O76" s="2">
-        <v>9.1299931208292717E-2</v>
+        <f>J70</f>
+        <v>1.3710999488830566</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -11037,7 +10560,8 @@
         <v>27</v>
       </c>
       <c r="O77" s="2">
-        <v>0.11776665846506762</v>
+        <f>K70</f>
+        <v>1.3964999914169312</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -11045,7 +10569,8 @@
         <v>30</v>
       </c>
       <c r="O78" s="2">
-        <v>0.14350001017252612</v>
+        <f>L70</f>
+        <v>1.422700047492981</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -11089,194 +10614,91 @@
         <v>0</v>
       </c>
       <c r="O85" s="2">
-        <v>-5.3933382034301758E-2</v>
+        <f>B87</f>
+        <v>1.2288999557495117</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B86" s="1">
-        <v>1.2839000225067139</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.2694000005722046</v>
-      </c>
-      <c r="D86" s="1">
-        <v>1.2683000564575195</v>
-      </c>
-      <c r="E86" s="1">
-        <v>1.2645000219345093</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="H86" s="1">
-        <v>1.2652000188827515</v>
-      </c>
-      <c r="I86" s="1">
-        <v>1.2647000551223755</v>
-      </c>
-      <c r="J86" s="1">
-        <v>1.2653000354766846</v>
-      </c>
-      <c r="K86" s="1">
-        <v>1.2648999691009521</v>
-      </c>
-      <c r="L86" s="1">
-        <v>1.2652000188827515</v>
-      </c>
       <c r="N86" s="2">
         <v>3</v>
       </c>
       <c r="O86" s="2">
-        <v>-2.0700057347615486E-2</v>
+        <f>C87</f>
+        <v>1.261199951171875</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1.3325999975204468</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.3308000564575195</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1.3396999835968018</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1.3422000408172607</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.3418999910354614</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1.3387000560760498</v>
-      </c>
-      <c r="H87" s="1">
-        <v>1.3361999988555908</v>
-      </c>
-      <c r="I87" s="1">
-        <v>1.3346999883651733</v>
-      </c>
-      <c r="J87" s="1">
-        <v>1.3351000547409058</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1.3321000337600708</v>
-      </c>
-      <c r="L87" s="1">
-        <v>1.3315000534057617</v>
+      <c r="A87" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B85</f>
+        <v>1.2288999557495117</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" ref="C87:L87" si="5">C85</f>
+        <v>1.261199951171875</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.291100025177002</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3229000568389893</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3487999439239502</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3733999729156494</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3976999521255493</v>
+      </c>
+      <c r="I87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4214999675750732</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4443999528884888</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4661999940872192</v>
+      </c>
+      <c r="L87" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4874000549316406</v>
       </c>
       <c r="N87" s="2">
         <v>6</v>
       </c>
       <c r="O87" s="2">
-        <v>5.0333340962727124E-3</v>
+        <f>D87</f>
+        <v>1.291100025177002</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="1">
-        <v>1.2319999933242798</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.2454999685287476</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1.2502000331878662</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1.2484999895095825</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1.2465000152587891</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1.2434999942779541</v>
-      </c>
-      <c r="H88" s="1">
-        <v>1.2409000396728516</v>
-      </c>
-      <c r="I88" s="1">
-        <v>1.2381999492645264</v>
-      </c>
-      <c r="J88" s="1">
-        <v>1.2389999628067017</v>
-      </c>
-      <c r="K88" s="1">
-        <v>1.2391999959945679</v>
-      </c>
-      <c r="L88" s="1">
-        <v>1.2409000396728516</v>
-      </c>
       <c r="N88" s="2">
         <v>9</v>
       </c>
       <c r="O88" s="2">
-        <v>3.7833372751871819E-2</v>
+        <f>E87</f>
+        <v>1.3229000568389893</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="2">
-        <f>B85-(AVERAGE(B86:B88))</f>
-        <v>-5.3933382034301758E-2</v>
-      </c>
-      <c r="C89" s="2">
-        <f t="shared" ref="C89:L89" si="5">C85-(AVERAGE(C86:C88))</f>
-        <v>-2.0700057347615486E-2</v>
-      </c>
-      <c r="D89" s="2">
-        <f t="shared" si="5"/>
-        <v>5.0333340962727124E-3</v>
-      </c>
-      <c r="E89" s="2">
-        <f t="shared" si="5"/>
-        <v>3.7833372751871819E-2</v>
-      </c>
-      <c r="F89" s="2">
-        <f t="shared" si="5"/>
-        <v>6.4233263333638435E-2</v>
-      </c>
-      <c r="G89" s="2">
-        <f t="shared" si="5"/>
-        <v>9.1033299763997322E-2</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.11693326632181811</v>
-      </c>
-      <c r="I89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.1422999699910481</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.16459993521372485</v>
-      </c>
-      <c r="K89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.18746666113535571</v>
-      </c>
-      <c r="L89" s="2">
-        <f t="shared" si="5"/>
-        <v>0.20820001761118578</v>
-      </c>
       <c r="N89" s="2">
         <v>12</v>
       </c>
       <c r="O89" s="2">
-        <v>6.4233263333638435E-2</v>
+        <f>F87</f>
+        <v>1.3487999439239502</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -11284,7 +10706,8 @@
         <v>15</v>
       </c>
       <c r="O90" s="2">
-        <v>9.1033299763997322E-2</v>
+        <f>G87</f>
+        <v>1.3733999729156494</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -11292,7 +10715,8 @@
         <v>18</v>
       </c>
       <c r="O91" s="2">
-        <v>0.11693326632181811</v>
+        <f>H87</f>
+        <v>1.3976999521255493</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -11300,7 +10724,8 @@
         <v>21</v>
       </c>
       <c r="O92" s="2">
-        <v>0.1422999699910481</v>
+        <f>I87</f>
+        <v>1.4214999675750732</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -11308,7 +10733,8 @@
         <v>24</v>
       </c>
       <c r="O93" s="2">
-        <v>0.16459993521372485</v>
+        <f>J87</f>
+        <v>1.4443999528884888</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -11316,7 +10742,8 @@
         <v>27</v>
       </c>
       <c r="O94" s="2">
-        <v>0.18746666113535571</v>
+        <f>K87</f>
+        <v>1.4661999940872192</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -11324,7 +10751,8 @@
         <v>30</v>
       </c>
       <c r="O95" s="2">
-        <v>0.20820001761118578</v>
+        <f>L87</f>
+        <v>1.4874000549316406</v>
       </c>
     </row>
   </sheetData>
@@ -11339,7 +10767,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11390,193 +10818,193 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="10">
         <v>91144</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.2200000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E3" s="1">
         <v>1E-4</v>
       </c>
       <c r="F3" s="1">
         <f>D3-E3</f>
-        <v>1.2100000000000001E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="G3" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H3" s="1">
         <f>F3/G3</f>
-        <v>0.19674796747967482</v>
+        <v>0.19349593495934961</v>
       </c>
       <c r="I3" s="7">
         <v>64.556962025316437</v>
       </c>
       <c r="J3" s="7">
         <f>(H3*60*50000*100)/(1000*50*0.6*I3)</f>
-        <v>30.476645942930027</v>
+        <v>29.972899728997298</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>1.06E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="E4" s="1">
         <v>1E-4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F5" si="0">D4-E4</f>
-        <v>1.0500000000000001E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="G4" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H5" si="1">F4/G4</f>
-        <v>0.17073170731707318</v>
+        <v>0.16747967479674797</v>
       </c>
       <c r="I4" s="7">
         <v>64.556962025316437</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J5" si="2">(H4*60*50000*100)/(1000*50*0.6*I4)</f>
-        <v>26.446676231468203</v>
+        <v>25.942930017535474</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="6">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>9.4999999999999998E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="E5" s="1">
         <v>1E-4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>9.4000000000000004E-3</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="G5" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.15284552845528457</v>
+        <v>0.14959349593495935</v>
       </c>
       <c r="I5" s="7">
         <v>64.556962025316437</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="2"/>
-        <v>23.676072054838205</v>
+        <v>23.172325840905479</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>8.2000000000000007E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E6" s="1">
         <v>1E-4</v>
       </c>
       <c r="F6" s="1">
         <f>D6-E6</f>
-        <v>8.1000000000000013E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="G6" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H6" s="1">
         <f>F6/G6</f>
-        <v>0.13170731707317077</v>
+        <v>0.12845528455284555</v>
       </c>
       <c r="I6" s="7">
         <v>64.556962025316437</v>
       </c>
       <c r="J6" s="7">
         <f>(H6*60*50000*100)/(1000*50*0.6*I6)</f>
-        <v>20.401721664275478</v>
+        <v>19.897975450342749</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="6">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>7.4000000000000003E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1E-4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" ref="F7:F8" si="3">D7-E7</f>
-        <v>7.3000000000000001E-3</v>
+        <v>7.0999999999999995E-3</v>
       </c>
       <c r="G7" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H8" si="4">F7/G7</f>
-        <v>0.11869918699186992</v>
+        <v>0.11544715447154472</v>
       </c>
       <c r="I7" s="7">
         <v>64.556962025316437</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ref="J7:J8" si="5">(H7*60*50000*100)/(1000*50*0.6*I7)</f>
-        <v>18.386736808544558</v>
+        <v>17.882990594611833</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="6">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>8.6999999999999994E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E8" s="1">
         <v>1E-4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>8.6E-3</v>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="G8" s="1">
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="4"/>
-        <v>0.13983739837398373</v>
+        <v>0.13658536585365855</v>
       </c>
       <c r="I8" s="7">
         <v>64.556962025316437</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="5"/>
-        <v>21.661087199107293</v>
+        <v>21.157340985174564</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
